--- a/Shablon/34420A.xlsx
+++ b/Shablon/34420A.xlsx
@@ -14,27 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$98</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="208">
-  <si>
-    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
   <si>
     <t>Условия проведения калибровки:</t>
   </si>
@@ -716,11 +701,14 @@
   <si>
     <t>Канал 2</t>
   </si>
+  <si>
+    <t>TITLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -1110,60 +1098,60 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,68 +1473,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="A3" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1561,16 +1541,16 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="A7" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1585,29 +1565,29 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
       <c r="D9" s="40" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="42"/>
       <c r="G9" s="42" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H9" s="43"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
+      <c r="A10" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
       <c r="D10" s="44" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
@@ -1615,11 +1595,11 @@
       <c r="H10" s="43"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="A11" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="40"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -1627,11 +1607,11 @@
       <c r="H11" s="43"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
+      <c r="A12" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
       <c r="D12" s="45"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -1639,13 +1619,13 @@
       <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
+      <c r="A13" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="44" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -1653,13 +1633,13 @@
       <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="A14" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
       <c r="D14" s="46" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -1667,13 +1647,13 @@
       <c r="H14" s="43"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
+      <c r="A15" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="40" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
@@ -1685,99 +1665,99 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="69"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="70"/>
+      <c r="F19" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="69"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="70"/>
+      <c r="F20" s="69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="69"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="70"/>
+      <c r="F21" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61" t="s">
+      <c r="G21" s="69"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="G22" s="69"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="61"/>
+      <c r="G23" s="69"/>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1792,7 +1772,7 @@
     </row>
     <row r="25" spans="1:9" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1815,17 +1795,17 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1849,7 +1829,7 @@
     </row>
     <row r="33" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -1861,212 +1841,212 @@
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="59" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59" t="s">
-        <v>175</v>
+      <c r="A34" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57" t="s">
+        <v>170</v>
       </c>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="65" t="s">
-        <v>206</v>
+        <v>25</v>
+      </c>
+      <c r="B37" s="58" t="s">
+        <v>201</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G37" s="74" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="G37" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="H37" s="56" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="65"/>
+        <v>26</v>
+      </c>
+      <c r="B38" s="58"/>
       <c r="C38" s="49" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="66" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>68</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="74"/>
+        <v>80</v>
+      </c>
+      <c r="G38" s="59"/>
       <c r="H38" s="56" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="65"/>
+        <v>27</v>
+      </c>
+      <c r="B39" s="58"/>
       <c r="C39" s="49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="66"/>
+        <v>46</v>
+      </c>
+      <c r="E39" s="60"/>
       <c r="F39" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="74"/>
+        <v>81</v>
+      </c>
+      <c r="G39" s="59"/>
       <c r="H39" s="56" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="65"/>
+        <v>28</v>
+      </c>
+      <c r="B40" s="58"/>
       <c r="C40" s="49" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="66"/>
+        <v>47</v>
+      </c>
+      <c r="E40" s="60"/>
       <c r="F40" s="35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G40" s="56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H40" s="56" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="65" t="s">
-        <v>207</v>
+        <v>25</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>202</v>
       </c>
       <c r="C41" s="49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F41" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="74" t="s">
-        <v>71</v>
+        <v>83</v>
+      </c>
+      <c r="G41" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="H41" s="56" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="65"/>
+        <v>26</v>
+      </c>
+      <c r="B42" s="58"/>
       <c r="C42" s="49" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="66" t="s">
-        <v>73</v>
+        <v>49</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>68</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="74"/>
+        <v>84</v>
+      </c>
+      <c r="G42" s="59"/>
       <c r="H42" s="56" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="65"/>
+        <v>27</v>
+      </c>
+      <c r="B43" s="58"/>
       <c r="C43" s="49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="66"/>
+        <v>50</v>
+      </c>
+      <c r="E43" s="60"/>
       <c r="F43" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="74"/>
+        <v>85</v>
+      </c>
+      <c r="G43" s="59"/>
       <c r="H43" s="56" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I43" s="12"/>
     </row>
@@ -2083,7 +2063,7 @@
     </row>
     <row r="45" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B45" s="14"/>
       <c r="C45" s="28"/>
@@ -2095,369 +2075,369 @@
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="66"/>
+      <c r="B50" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="60"/>
+      <c r="F50" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50" s="61"/>
+      <c r="H50" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="66"/>
+      <c r="B51" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="60"/>
+      <c r="F51" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G51" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="53" t="s">
+        <v>180</v>
+      </c>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="66"/>
+      <c r="B52" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="61"/>
+      <c r="H52" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="I52" s="12"/>
+    </row>
+    <row r="53" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="66"/>
+      <c r="B53" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="60"/>
+      <c r="F53" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="61"/>
+      <c r="H53" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="59" t="s">
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="66"/>
+      <c r="B54" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="60"/>
+      <c r="F54" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="66"/>
+      <c r="B55" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D55" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="61"/>
+      <c r="H55" s="53" t="s">
+        <v>184</v>
+      </c>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="D46" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59" t="s">
+      <c r="B56" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G56" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59" t="s">
-        <v>175</v>
-      </c>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="70" t="s">
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="66"/>
+      <c r="B57" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="60"/>
+      <c r="F57" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="61"/>
+      <c r="H57" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="66"/>
+      <c r="B58" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="60"/>
+      <c r="F58" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="66"/>
+      <c r="B59" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="61"/>
+      <c r="H59" s="53" t="s">
+        <v>181</v>
+      </c>
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="66"/>
+      <c r="B60" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="60"/>
+      <c r="F60" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G60" s="61"/>
+      <c r="H60" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="66"/>
+      <c r="B61" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C61" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="G49" s="73" t="s">
+      <c r="D61" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="60"/>
+      <c r="F61" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H49" s="53" t="s">
+      <c r="G61" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
-      <c r="B50" s="25" t="s">
+      <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="66"/>
+      <c r="B62" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C62" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G50" s="73"/>
-      <c r="H50" s="53" t="s">
+      <c r="D62" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="61"/>
+      <c r="H62" s="53" t="s">
         <v>184</v>
-      </c>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
-      <c r="B51" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" s="66"/>
-      <c r="F51" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
-      <c r="B52" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="F52" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G52" s="73"/>
-      <c r="H52" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
-      <c r="B53" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="66"/>
-      <c r="F53" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" s="73"/>
-      <c r="H53" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="I53" s="12"/>
-    </row>
-    <row r="54" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
-      <c r="B54" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="G54" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="H54" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
-      <c r="B55" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="73"/>
-      <c r="H55" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="I55" s="12"/>
-    </row>
-    <row r="56" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="H56" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="70"/>
-      <c r="B57" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E57" s="66"/>
-      <c r="F57" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="73"/>
-      <c r="H57" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="I57" s="12"/>
-    </row>
-    <row r="58" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="70"/>
-      <c r="B58" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" s="66"/>
-      <c r="F58" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G58" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="H58" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="I58" s="12"/>
-    </row>
-    <row r="59" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="70"/>
-      <c r="B59" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E59" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="73"/>
-      <c r="H59" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="I59" s="12"/>
-    </row>
-    <row r="60" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
-      <c r="B60" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" s="73"/>
-      <c r="H60" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="I60" s="12"/>
-    </row>
-    <row r="61" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="66"/>
-      <c r="F61" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="H61" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="I61" s="12"/>
-    </row>
-    <row r="62" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
-      <c r="B62" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="F62" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="G62" s="73"/>
-      <c r="H62" s="53" t="s">
-        <v>189</v>
       </c>
       <c r="I62" s="12"/>
     </row>
@@ -2474,7 +2454,7 @@
     </row>
     <row r="64" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -2486,553 +2466,553 @@
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59" t="s">
-        <v>175</v>
+      <c r="A65" s="57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57" t="s">
+        <v>170</v>
       </c>
       <c r="H65" s="12"/>
     </row>
     <row r="66" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="12"/>
     </row>
     <row r="67" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
       <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="65" t="s">
-        <v>191</v>
+      <c r="A68" s="58" t="s">
+        <v>186</v>
       </c>
       <c r="B68" s="52" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="66" t="s">
-        <v>72</v>
+        <v>95</v>
+      </c>
+      <c r="D68" s="60" t="s">
+        <v>67</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F68" s="66" t="s">
-        <v>70</v>
+        <v>96</v>
+      </c>
+      <c r="F68" s="60" t="s">
+        <v>65</v>
       </c>
       <c r="G68" s="56" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="65"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="52" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C69" s="51" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D69" s="67"/>
       <c r="E69" s="34" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F69" s="67"/>
       <c r="G69" s="56" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="65"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="52" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D70" s="67"/>
       <c r="E70" s="34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F70" s="67"/>
       <c r="G70" s="56" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="65"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="52" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D71" s="66" t="s">
-        <v>73</v>
+        <v>101</v>
+      </c>
+      <c r="D71" s="60" t="s">
+        <v>68</v>
       </c>
       <c r="E71" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F71" s="66" t="s">
-        <v>71</v>
+        <v>102</v>
+      </c>
+      <c r="F71" s="60" t="s">
+        <v>66</v>
       </c>
       <c r="G71" s="56" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="65"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="52" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D72" s="67"/>
       <c r="E72" s="34" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F72" s="67"/>
       <c r="G72" s="56" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="65"/>
+      <c r="A73" s="58"/>
       <c r="B73" s="52" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D73" s="67"/>
       <c r="E73" s="34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F73" s="67"/>
       <c r="G73" s="56" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="65" t="s">
-        <v>192</v>
+      <c r="A74" s="58" t="s">
+        <v>187</v>
       </c>
       <c r="B74" s="52" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="66" t="s">
-        <v>72</v>
+        <v>107</v>
+      </c>
+      <c r="D74" s="60" t="s">
+        <v>67</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="F74" s="66" t="s">
-        <v>70</v>
+        <v>108</v>
+      </c>
+      <c r="F74" s="60" t="s">
+        <v>65</v>
       </c>
       <c r="G74" s="56" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="65"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="52" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D75" s="67"/>
       <c r="E75" s="34" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F75" s="67"/>
       <c r="G75" s="56" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H75" s="12"/>
     </row>
     <row r="76" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="52" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D76" s="67"/>
       <c r="E76" s="34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F76" s="67"/>
       <c r="G76" s="56" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H76" s="12"/>
     </row>
     <row r="77" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="52" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C77" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="G77" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="H77" s="12"/>
+    </row>
+    <row r="78" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="58"/>
+      <c r="B78" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="60"/>
+      <c r="E78" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" s="60"/>
+      <c r="G78" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="12"/>
+    </row>
+    <row r="79" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="D77" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="F77" s="66" t="s">
+      <c r="F79" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="G77" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="H77" s="12"/>
-    </row>
-    <row r="78" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
-      <c r="B78" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" s="66"/>
-      <c r="E78" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78" s="66"/>
-      <c r="G78" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="H78" s="12"/>
-    </row>
-    <row r="79" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="70" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F79" s="73" t="s">
-        <v>76</v>
-      </c>
       <c r="G79" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="70"/>
+      <c r="A80" s="66"/>
       <c r="B80" s="53" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" s="66"/>
+        <v>119</v>
+      </c>
+      <c r="D80" s="60"/>
       <c r="E80" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="F80" s="73"/>
+        <v>120</v>
+      </c>
+      <c r="F80" s="61"/>
       <c r="G80" s="53" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="70"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="53" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D81" s="66"/>
+        <v>121</v>
+      </c>
+      <c r="D81" s="60"/>
       <c r="E81" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="F81" s="73"/>
+        <v>122</v>
+      </c>
+      <c r="F81" s="61"/>
       <c r="G81" s="53" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="70"/>
+      <c r="A82" s="66"/>
       <c r="B82" s="53" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D82" s="66" t="s">
-        <v>75</v>
+        <v>123</v>
+      </c>
+      <c r="D82" s="60" t="s">
+        <v>70</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="F82" s="73" t="s">
-        <v>77</v>
+        <v>124</v>
+      </c>
+      <c r="F82" s="61" t="s">
+        <v>72</v>
       </c>
       <c r="G82" s="53" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="70"/>
+      <c r="A83" s="66"/>
       <c r="B83" s="53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" s="66"/>
+        <v>125</v>
+      </c>
+      <c r="D83" s="60"/>
       <c r="E83" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="F83" s="73"/>
+        <v>126</v>
+      </c>
+      <c r="F83" s="61"/>
       <c r="G83" s="53" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" s="30" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="70"/>
+      <c r="A84" s="66"/>
       <c r="B84" s="53" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="D84" s="66"/>
+        <v>127</v>
+      </c>
+      <c r="D84" s="60"/>
       <c r="E84" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="F84" s="73"/>
+        <v>128</v>
+      </c>
+      <c r="F84" s="61"/>
       <c r="G84" s="53" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H84" s="29"/>
       <c r="I84" s="29"/>
     </row>
     <row r="85" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="70"/>
+      <c r="A85" s="66"/>
       <c r="B85" s="53" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D85" s="50" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F85" s="53" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G85" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="70" t="s">
-        <v>181</v>
+      <c r="A86" s="66" t="s">
+        <v>176</v>
       </c>
       <c r="B86" s="53" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D86" s="66" t="s">
-        <v>74</v>
+        <v>131</v>
+      </c>
+      <c r="D86" s="60" t="s">
+        <v>69</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="F86" s="73" t="s">
-        <v>76</v>
+        <v>132</v>
+      </c>
+      <c r="F86" s="61" t="s">
+        <v>71</v>
       </c>
       <c r="G86" s="53" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
     <row r="87" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="70"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="53" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D87" s="66"/>
+        <v>133</v>
+      </c>
+      <c r="D87" s="60"/>
       <c r="E87" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="F87" s="73"/>
+        <v>134</v>
+      </c>
+      <c r="F87" s="61"/>
       <c r="G87" s="53" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
     <row r="88" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="70"/>
+      <c r="A88" s="66"/>
       <c r="B88" s="53" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C88" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" s="60"/>
+      <c r="E88" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="D88" s="66"/>
-      <c r="E88" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="F88" s="73"/>
+      <c r="F88" s="61"/>
       <c r="G88" s="53" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="70"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="53" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C89" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="E89" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D89" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E89" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="F89" s="73" t="s">
-        <v>77</v>
+      <c r="F89" s="61" t="s">
+        <v>72</v>
       </c>
       <c r="G89" s="53" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
     <row r="90" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="70"/>
+      <c r="A90" s="66"/>
       <c r="B90" s="53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C90" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" s="60"/>
+      <c r="E90" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D90" s="66"/>
-      <c r="E90" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F90" s="73"/>
+      <c r="F90" s="61"/>
       <c r="G90" s="53" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
     <row r="91" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="70"/>
+      <c r="A91" s="66"/>
       <c r="B91" s="53" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C91" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" s="60"/>
+      <c r="E91" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="D91" s="66"/>
-      <c r="E91" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="F91" s="73"/>
+      <c r="F91" s="61"/>
       <c r="G91" s="53" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
     <row r="92" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="70"/>
+      <c r="A92" s="66"/>
       <c r="B92" s="53" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C92" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E92" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="D92" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>149</v>
-      </c>
       <c r="F92" s="53" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G92" s="53" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
@@ -3060,72 +3040,73 @@
       <c r="I94" s="12"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="B95" s="68"/>
+      <c r="A95" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="64"/>
       <c r="C95" s="38"/>
       <c r="D95" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="71" t="s">
-        <v>157</v>
-      </c>
-      <c r="F95" s="72"/>
+        <v>3</v>
+      </c>
+      <c r="E95" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="F95" s="63"/>
       <c r="G95" s="12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H95" s="23"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="68"/>
-      <c r="C97" s="69" t="s">
-        <v>156</v>
-      </c>
-      <c r="D97" s="69"/>
+      <c r="A97" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="64"/>
+      <c r="C97" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="F34:G36"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="F79:F81"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="D79:D81"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="D34:E36"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A68:A73"/>
     <mergeCell ref="E65:F67"/>
     <mergeCell ref="D68:D70"/>
@@ -3137,48 +3118,47 @@
     <mergeCell ref="F68:F70"/>
     <mergeCell ref="F71:F73"/>
     <mergeCell ref="F74:F76"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="A15:C15"/>
     <mergeCell ref="C65:D67"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A79:A85"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E61"/>
     <mergeCell ref="D46:E48"/>
-    <mergeCell ref="D34:E36"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="F89:F91"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G61:G62"/>
     <mergeCell ref="G65:G67"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G41:G43"/>
+    <mergeCell ref="F34:G36"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Shablon/34420A.xlsx
+++ b/Shablon/34420A.xlsx
@@ -12,14 +12,23 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$H$93</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="210">
+  <si>
+    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
+  </si>
+  <si>
+    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
+  </si>
+  <si>
+    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
+  </si>
   <si>
     <t>Условия проведения калибровки:</t>
   </si>
@@ -202,9 +211,6 @@
     <t>0,9999655 МОм</t>
   </si>
   <si>
-    <t>Поверитель:</t>
-  </si>
-  <si>
     <t>dcv1</t>
   </si>
   <si>
@@ -702,7 +708,19 @@
     <t>Канал 2</t>
   </si>
   <si>
-    <t>TITLE</t>
+    <t>СГМетр, лаборатория средств электрических и радиотехнических измерений</t>
+  </si>
+  <si>
+    <t>Уникальный номер об аккредитации в реестре акредитованных лиц № РОСС СОБ 3.00231.2014</t>
+  </si>
+  <si>
+    <t>Заключение:</t>
+  </si>
+  <si>
+    <t>годен</t>
+  </si>
+  <si>
+    <t>Поверку провёл:</t>
   </si>
 </sst>
 </file>
@@ -947,7 +965,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1036,9 +1054,6 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1153,6 +1168,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1457,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,84 +1490,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="A2" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="A3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="A4" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="A5" s="73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="A7" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1565,214 +1590,214 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="40" t="s">
+      <c r="A9" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="43"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="43"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="43"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="43"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="43"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="46" t="s">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="43"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="43"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69" t="s">
+      <c r="A18" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="68"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="70" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="69"/>
+      <c r="F19" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="68"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="71" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="69"/>
+      <c r="A20" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="69"/>
+      <c r="F20" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="68"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="69" t="s">
+      <c r="A21" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="69"/>
+      <c r="F21" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="68"/>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="69" t="s">
+      <c r="A22" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="68"/>
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="69"/>
+      <c r="A23" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="68"/>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1784,414 +1809,485 @@
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="9"/>
+      <c r="A26" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="A33" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>168</v>
+      </c>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="57" t="s">
+    <row r="34" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="57"/>
+      <c r="C34" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="58"/>
+      <c r="H34" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="58"/>
+      <c r="H35" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="57"/>
+      <c r="C36" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="59"/>
+      <c r="F36" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="57"/>
+      <c r="C38" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="58"/>
+      <c r="H38" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="57"/>
+      <c r="C39" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="59"/>
+      <c r="F39" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="58"/>
+      <c r="H39" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="56"/>
+      <c r="F42" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="35" t="s">
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="G45" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="65"/>
+      <c r="B46" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="59"/>
+      <c r="F46" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="60"/>
+      <c r="H46" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="65"/>
+      <c r="B47" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="59"/>
+      <c r="F47" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="65"/>
+      <c r="B48" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="G48" s="60"/>
+      <c r="H48" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="65"/>
+      <c r="B49" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="59"/>
+      <c r="F49" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="60"/>
+      <c r="H49" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="65"/>
+      <c r="B50" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38" s="35" t="s">
+      <c r="D50" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="59"/>
+      <c r="F50" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="G50" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="65"/>
+      <c r="B51" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="35" t="s">
+      <c r="D51" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="G38" s="59"/>
-      <c r="H38" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="59"/>
-      <c r="H39" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="58" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G41" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H41" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="59"/>
-      <c r="H42" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="59"/>
-      <c r="H43" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57" t="s">
-        <v>170</v>
-      </c>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="F49" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="G49" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="H49" s="53" t="s">
+      <c r="F51" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="60"/>
+      <c r="H51" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66"/>
-      <c r="B50" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="G50" s="61"/>
-      <c r="H50" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
-      <c r="B51" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="60"/>
-      <c r="F51" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G51" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="H51" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="66"/>
       <c r="B52" s="25" t="s">
         <v>32</v>
       </c>
@@ -2199,22 +2295,24 @@
         <v>39</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="60" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="E52" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52" s="61"/>
-      <c r="H52" s="53" t="s">
-        <v>181</v>
+        <v>95</v>
+      </c>
+      <c r="G52" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="52" t="s">
+        <v>180</v>
       </c>
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="25" t="s">
         <v>33</v>
       </c>
@@ -2222,20 +2320,20 @@
         <v>40</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" s="60"/>
+        <v>66</v>
+      </c>
+      <c r="E53" s="59"/>
       <c r="F53" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G53" s="61"/>
-      <c r="H53" s="53" t="s">
-        <v>182</v>
+        <v>96</v>
+      </c>
+      <c r="G53" s="60"/>
+      <c r="H53" s="52" t="s">
+        <v>181</v>
       </c>
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="25" t="s">
         <v>34</v>
       </c>
@@ -2243,834 +2341,745 @@
         <v>41</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="60"/>
+        <v>53</v>
+      </c>
+      <c r="E54" s="59"/>
       <c r="F54" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="53" t="s">
-        <v>183</v>
+        <v>75</v>
+      </c>
+      <c r="G54" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" s="52" t="s">
+        <v>182</v>
       </c>
       <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66"/>
+      <c r="A55" s="65"/>
       <c r="B55" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="32" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="60"/>
+      <c r="H55" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="65"/>
+      <c r="B56" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="59"/>
+      <c r="F56" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="60"/>
+      <c r="H56" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="65"/>
+      <c r="B57" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="59"/>
+      <c r="F57" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="F55" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55" s="61"/>
-      <c r="H55" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="I55" s="12"/>
-    </row>
-    <row r="56" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56" s="60" t="s">
+      <c r="G57" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="65"/>
+      <c r="B58" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="60"/>
+      <c r="H58" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="I58" s="12"/>
+    </row>
+    <row r="59" spans="1:9" s="30" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A59" s="29"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+    </row>
+    <row r="60" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="56"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="56"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="F56" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="G56" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="H56" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
-      <c r="B57" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57" s="60"/>
-      <c r="F57" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" s="61"/>
-      <c r="H57" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="I57" s="12"/>
-    </row>
-    <row r="58" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66"/>
-      <c r="B58" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="60"/>
-      <c r="F58" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="H58" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="I58" s="12"/>
-    </row>
-    <row r="59" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="66"/>
-      <c r="B59" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="G59" s="61"/>
-      <c r="H59" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="I59" s="12"/>
-    </row>
-    <row r="60" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
-      <c r="B60" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="60"/>
-      <c r="F60" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" s="61"/>
-      <c r="H60" s="53" t="s">
-        <v>182</v>
-      </c>
-      <c r="I60" s="12"/>
-    </row>
-    <row r="61" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="66"/>
-      <c r="B61" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E61" s="60"/>
-      <c r="F61" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="H61" s="53" t="s">
-        <v>183</v>
-      </c>
-      <c r="I61" s="12"/>
-    </row>
-    <row r="62" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="66"/>
-      <c r="B62" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" s="61"/>
-      <c r="H62" s="53" t="s">
-        <v>184</v>
-      </c>
-      <c r="I62" s="12"/>
-    </row>
-    <row r="63" spans="1:9" s="30" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A63" s="29"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-    </row>
-    <row r="64" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="12"/>
+      <c r="E64" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="55" t="s">
+        <v>190</v>
+      </c>
       <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-    </row>
-    <row r="65" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="B65" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57" t="s">
-        <v>170</v>
+    </row>
+    <row r="65" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="57"/>
+      <c r="B65" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D65" s="66"/>
+      <c r="E65" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" s="66"/>
+      <c r="G65" s="55" t="s">
+        <v>191</v>
       </c>
       <c r="H65" s="12"/>
     </row>
     <row r="66" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="57"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
+      <c r="B66" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="66"/>
+      <c r="E66" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="66"/>
+      <c r="G66" s="55" t="s">
+        <v>192</v>
+      </c>
       <c r="H66" s="12"/>
     </row>
     <row r="67" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
+      <c r="B67" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G67" s="55" t="s">
+        <v>193</v>
+      </c>
       <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" s="60" t="s">
+      <c r="A68" s="57"/>
+      <c r="B68" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D68" s="66"/>
+      <c r="E68" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68" s="66"/>
+      <c r="G68" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="H68" s="12"/>
+    </row>
+    <row r="69" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="57"/>
+      <c r="B69" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="66"/>
+      <c r="E69" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="66"/>
+      <c r="G69" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="E68" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F68" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G68" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="H68" s="12"/>
-    </row>
-    <row r="69" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
-      <c r="B69" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="67"/>
-      <c r="E69" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" s="67"/>
-      <c r="G69" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="H69" s="12"/>
-    </row>
-    <row r="70" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
-      <c r="B70" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D70" s="67"/>
-      <c r="E70" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="67"/>
-      <c r="G70" s="56" t="s">
+      <c r="G70" s="55" t="s">
         <v>190</v>
       </c>
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
-      <c r="B71" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" s="60" t="s">
+      <c r="A71" s="57"/>
+      <c r="B71" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D71" s="66"/>
+      <c r="E71" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="F71" s="66"/>
+      <c r="G71" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="H71" s="12"/>
+    </row>
+    <row r="72" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="57"/>
+      <c r="B72" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="66"/>
+      <c r="E72" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="66"/>
+      <c r="G72" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="H72" s="12"/>
+    </row>
+    <row r="73" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="57"/>
+      <c r="B73" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F73" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="E71" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="F71" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="G71" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="H71" s="12"/>
-    </row>
-    <row r="72" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
-      <c r="B72" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D72" s="67"/>
-      <c r="E72" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F72" s="67"/>
-      <c r="G72" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="H72" s="12"/>
-    </row>
-    <row r="73" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
-      <c r="B73" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="67"/>
-      <c r="E73" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="F73" s="67"/>
-      <c r="G73" s="56" t="s">
+      <c r="G73" s="55" t="s">
         <v>193</v>
       </c>
       <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="B74" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="60" t="s">
-        <v>67</v>
-      </c>
+      <c r="A74" s="57"/>
+      <c r="B74" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="59"/>
       <c r="E74" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F74" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="G74" s="56" t="s">
-        <v>188</v>
+        <v>118</v>
+      </c>
+      <c r="F74" s="59"/>
+      <c r="G74" s="55" t="s">
+        <v>194</v>
       </c>
       <c r="H74" s="12"/>
     </row>
-    <row r="75" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
+    <row r="75" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="65" t="s">
+        <v>177</v>
+      </c>
       <c r="B75" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" s="67"/>
+        <v>32</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="59" t="s">
+        <v>71</v>
+      </c>
       <c r="E75" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="F75" s="67"/>
-      <c r="G75" s="56" t="s">
-        <v>189</v>
+        <v>120</v>
+      </c>
+      <c r="F75" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" s="52" t="s">
+        <v>196</v>
       </c>
       <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
+      <c r="A76" s="65"/>
       <c r="B76" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" s="67"/>
+        <v>33</v>
+      </c>
+      <c r="C76" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="59"/>
       <c r="E76" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="F76" s="67"/>
-      <c r="G76" s="56" t="s">
-        <v>190</v>
+        <v>122</v>
+      </c>
+      <c r="F76" s="60"/>
+      <c r="G76" s="52" t="s">
+        <v>197</v>
       </c>
       <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
+      <c r="A77" s="65"/>
       <c r="B77" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="60" t="s">
-        <v>68</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="59"/>
       <c r="E77" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="F77" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="G77" s="56" t="s">
-        <v>191</v>
+        <v>124</v>
+      </c>
+      <c r="F77" s="60"/>
+      <c r="G77" s="52" t="s">
+        <v>198</v>
       </c>
       <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
     </row>
     <row r="78" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
+      <c r="A78" s="65"/>
       <c r="B78" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D78" s="60"/>
+        <v>35</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="59" t="s">
+        <v>72</v>
+      </c>
       <c r="E78" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="F78" s="60"/>
-      <c r="G78" s="56" t="s">
-        <v>192</v>
+        <v>126</v>
+      </c>
+      <c r="F78" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G78" s="52" t="s">
+        <v>199</v>
       </c>
       <c r="H78" s="12"/>
-    </row>
-    <row r="79" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="66" t="s">
-        <v>175</v>
-      </c>
-      <c r="B79" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" s="60" t="s">
-        <v>69</v>
-      </c>
+      <c r="I78" s="12"/>
+    </row>
+    <row r="79" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="65"/>
+      <c r="B79" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D79" s="59"/>
       <c r="E79" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="F79" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G79" s="53" t="s">
-        <v>194</v>
+        <v>128</v>
+      </c>
+      <c r="F79" s="60"/>
+      <c r="G79" s="52" t="s">
+        <v>200</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="66"/>
-      <c r="B80" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D80" s="60"/>
+    <row r="80" spans="1:9" s="30" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="65"/>
+      <c r="B80" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C80" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="59"/>
       <c r="E80" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="F80" s="61"/>
-      <c r="G80" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-    </row>
-    <row r="81" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="66"/>
-      <c r="B81" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C81" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D81" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="F80" s="60"/>
+      <c r="G80" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+    </row>
+    <row r="81" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="65"/>
+      <c r="B81" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="49" t="s">
+        <v>80</v>
+      </c>
       <c r="E81" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F81" s="61"/>
-      <c r="G81" s="53" t="s">
-        <v>196</v>
+        <v>132</v>
+      </c>
+      <c r="F81" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81" s="52" t="s">
+        <v>202</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="66"/>
-      <c r="B82" s="53" t="s">
+    <row r="82" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" s="60" t="s">
-        <v>70</v>
+      <c r="C82" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="F82" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G82" s="53" t="s">
-        <v>197</v>
+        <v>134</v>
+      </c>
+      <c r="F82" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G82" s="52" t="s">
+        <v>196</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="66"/>
-      <c r="B83" s="53" t="s">
+      <c r="A83" s="65"/>
+      <c r="B83" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" s="60"/>
+      <c r="C83" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" s="59"/>
       <c r="E83" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="F83" s="61"/>
-      <c r="G83" s="53" t="s">
-        <v>198</v>
+        <v>136</v>
+      </c>
+      <c r="F83" s="60"/>
+      <c r="G83" s="52" t="s">
+        <v>197</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9" s="30" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="66"/>
-      <c r="B84" s="53" t="s">
+    <row r="84" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="65"/>
+      <c r="B84" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D84" s="60"/>
+      <c r="C84" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="59"/>
       <c r="E84" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="F84" s="61"/>
-      <c r="G84" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F84" s="60"/>
+      <c r="G84" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+    </row>
+    <row r="85" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="65"/>
+      <c r="B85" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F85" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G85" s="52" t="s">
         <v>199</v>
-      </c>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-    </row>
-    <row r="85" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="66"/>
-      <c r="B85" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C85" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="D85" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E85" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="F85" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G85" s="53" t="s">
-        <v>200</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="B86" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="D86" s="60" t="s">
-        <v>69</v>
-      </c>
+    <row r="86" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="65"/>
+      <c r="B86" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" s="59"/>
       <c r="E86" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="F86" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G86" s="53" t="s">
-        <v>194</v>
+        <v>144</v>
+      </c>
+      <c r="F86" s="60"/>
+      <c r="G86" s="52" t="s">
+        <v>200</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
     <row r="87" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="66"/>
-      <c r="B87" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C87" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="D87" s="60"/>
+      <c r="A87" s="65"/>
+      <c r="B87" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D87" s="59"/>
       <c r="E87" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F87" s="61"/>
-      <c r="G87" s="53" t="s">
-        <v>195</v>
+        <v>145</v>
+      </c>
+      <c r="F87" s="60"/>
+      <c r="G87" s="52" t="s">
+        <v>201</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
     <row r="88" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="66"/>
-      <c r="B88" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C88" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D88" s="60"/>
+      <c r="A88" s="65"/>
+      <c r="B88" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D88" s="49" t="s">
+        <v>80</v>
+      </c>
       <c r="E88" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="F88" s="61"/>
-      <c r="G88" s="53" t="s">
-        <v>196</v>
+        <v>146</v>
+      </c>
+      <c r="F88" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G88" s="52" t="s">
+        <v>202</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="66"/>
-      <c r="B89" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D89" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E89" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="F89" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="G89" s="53" t="s">
-        <v>197</v>
-      </c>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="66"/>
-      <c r="B90" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C90" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D90" s="60"/>
-      <c r="E90" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="F90" s="61"/>
-      <c r="G90" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-    </row>
-    <row r="91" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="66"/>
-      <c r="B91" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="D91" s="60"/>
-      <c r="E91" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="53" t="s">
-        <v>199</v>
-      </c>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-    </row>
-    <row r="92" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="66"/>
-      <c r="B92" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="D92" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="F92" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="G92" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-    </row>
-    <row r="93" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-    </row>
-    <row r="94" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" s="64"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="F95" s="63"/>
-      <c r="G95" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H95" s="23"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" s="64"/>
-      <c r="C97" s="65" t="s">
-        <v>151</v>
-      </c>
-      <c r="D97" s="65"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" s="63"/>
+      <c r="C90" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="15"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="63"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="F91" s="62"/>
+      <c r="G91" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H91" s="23"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="63"/>
+      <c r="C92" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="D92" s="64"/>
+      <c r="I92" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="D34:E36"/>
-    <mergeCell ref="E38:E40"/>
+  <mergeCells count="91">
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="D30:E32"/>
+    <mergeCell ref="E34:E36"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A4:H4"/>
@@ -3086,11 +3095,11 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
@@ -3107,67 +3116,67 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="E65:F67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A74:A78"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="C65:D67"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="D79:D81"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="E61:F63"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="C61:D63"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D80"/>
     <mergeCell ref="D82:D84"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E48:E50"/>
     <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="D46:E48"/>
-    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="D42:E44"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F78:F80"/>
     <mergeCell ref="F82:F84"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="F89:F91"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="G33:G35"/>
     <mergeCell ref="G37:G39"/>
-    <mergeCell ref="G41:G43"/>
-    <mergeCell ref="F34:G36"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.60416666666666663" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"Times New Roman,обычный"&amp;P страница из &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="44" max="7" man="1"/>
-    <brk id="99" max="7" man="1"/>
+    <brk id="40" max="7" man="1"/>
+    <brk id="93" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Shablon/34420A.xlsx
+++ b/Shablon/34420A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="209">
   <si>
     <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
   </si>
@@ -591,9 +591,6 @@
     <t>МП-243/447-2011</t>
   </si>
   <si>
-    <t>Протокол поверки №</t>
-  </si>
-  <si>
     <t>3.1 Определение абсолютной  погрешности измерения напряжения постоянного тока</t>
   </si>
   <si>
@@ -735,7 +732,7 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +849,11 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -962,8 +964,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1113,66 +1116,67 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1477,7 +1481,7 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,68 +1494,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1566,16 +1570,17 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
+      <c r="A7" s="75" t="str">
+        <f>"Протокол поверки № 10/"&amp;C92&amp;"/"&amp;D10</f>
+        <v>Протокол поверки № 10/_date/_numb</v>
+      </c>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1590,11 +1595,11 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="39" t="s">
         <v>164</v>
       </c>
@@ -1606,11 +1611,11 @@
       <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="43" t="s">
         <v>148</v>
       </c>
@@ -1620,11 +1625,11 @@
       <c r="H10" s="42"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="66" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="39"/>
       <c r="E11" s="40"/>
       <c r="F11" s="40"/>
@@ -1632,11 +1637,11 @@
       <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="44"/>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
@@ -1644,11 +1649,11 @@
       <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="43" t="s">
         <v>149</v>
       </c>
@@ -1658,11 +1663,11 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="45" t="s">
         <v>165</v>
       </c>
@@ -1672,11 +1677,11 @@
       <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="39" t="s">
         <v>163</v>
       </c>
@@ -1694,95 +1699,95 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68" t="s">
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68" t="s">
+      <c r="E18" s="65"/>
+      <c r="F18" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="68"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="69" t="s">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="68" t="s">
+      <c r="E19" s="64"/>
+      <c r="F19" s="65" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="68"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="69" t="s">
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="68" t="s">
+      <c r="E20" s="64"/>
+      <c r="F20" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="68"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="68" t="s">
+      <c r="E21" s="64"/>
+      <c r="F21" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="68"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="68" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="68"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="68" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="68"/>
+      <c r="G23" s="65"/>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1833,7 +1838,7 @@
     </row>
     <row r="29" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -1845,56 +1850,56 @@
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="60" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="E30" s="60"/>
+      <c r="F30" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56" t="s">
-        <v>172</v>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60" t="s">
+        <v>171</v>
       </c>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="57" t="s">
-        <v>203</v>
+      <c r="B33" s="69" t="s">
+        <v>202</v>
       </c>
       <c r="C33" s="48" t="s">
         <v>28</v>
@@ -1908,11 +1913,11 @@
       <c r="F33" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="74" t="s">
         <v>68</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I33" s="12"/>
     </row>
@@ -1920,22 +1925,22 @@
       <c r="A34" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="57"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="48" t="s">
         <v>29</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="61" t="s">
         <v>70</v>
       </c>
       <c r="F34" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="58"/>
+      <c r="G34" s="74"/>
       <c r="H34" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I34" s="12"/>
     </row>
@@ -1943,20 +1948,20 @@
       <c r="A35" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="57"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="59"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="58"/>
+      <c r="G35" s="74"/>
       <c r="H35" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I35" s="12"/>
     </row>
@@ -1964,14 +1969,14 @@
       <c r="A36" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="57"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="48" t="s">
         <v>31</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="59"/>
+      <c r="E36" s="61"/>
       <c r="F36" s="35" t="s">
         <v>84</v>
       </c>
@@ -1979,7 +1984,7 @@
         <v>69</v>
       </c>
       <c r="H36" s="55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I36" s="12"/>
     </row>
@@ -1987,8 +1992,8 @@
       <c r="A37" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="57" t="s">
-        <v>204</v>
+      <c r="B37" s="69" t="s">
+        <v>203</v>
       </c>
       <c r="C37" s="48" t="s">
         <v>28</v>
@@ -2002,11 +2007,11 @@
       <c r="F37" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="58" t="s">
+      <c r="G37" s="74" t="s">
         <v>68</v>
       </c>
       <c r="H37" s="55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I37" s="12"/>
     </row>
@@ -2014,22 +2019,22 @@
       <c r="A38" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="48" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="61" t="s">
         <v>70</v>
       </c>
       <c r="F38" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G38" s="58"/>
+      <c r="G38" s="74"/>
       <c r="H38" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I38" s="12"/>
     </row>
@@ -2037,20 +2042,20 @@
       <c r="A39" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="57"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="59"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="58"/>
+      <c r="G39" s="74"/>
       <c r="H39" s="55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I39" s="12"/>
     </row>
@@ -2067,7 +2072,7 @@
     </row>
     <row r="41" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="28"/>
@@ -2079,53 +2084,53 @@
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="56" t="s">
+      <c r="A42" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="56" t="s">
+      <c r="C42" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56" t="s">
-        <v>172</v>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60" t="s">
+        <v>171</v>
       </c>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65" t="s">
-        <v>177</v>
+      <c r="A45" s="67" t="s">
+        <v>176</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>32</v>
@@ -2136,22 +2141,22 @@
       <c r="D45" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="59" t="s">
+      <c r="E45" s="61" t="s">
         <v>71</v>
       </c>
       <c r="F45" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G45" s="60" t="s">
+      <c r="G45" s="73" t="s">
         <v>73</v>
       </c>
       <c r="H45" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="25" t="s">
         <v>33</v>
       </c>
@@ -2161,18 +2166,18 @@
       <c r="D46" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="59"/>
+      <c r="E46" s="61"/>
       <c r="F46" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="60"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="25" t="s">
         <v>34</v>
       </c>
@@ -2182,20 +2187,20 @@
       <c r="D47" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="59"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G47" s="60" t="s">
+      <c r="G47" s="73" t="s">
         <v>74</v>
       </c>
       <c r="H47" s="52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
+      <c r="A48" s="67"/>
       <c r="B48" s="25" t="s">
         <v>35</v>
       </c>
@@ -2205,20 +2210,20 @@
       <c r="D48" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="59" t="s">
+      <c r="E48" s="61" t="s">
         <v>72</v>
       </c>
       <c r="F48" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="60"/>
+      <c r="G48" s="73"/>
       <c r="H48" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
+      <c r="A49" s="67"/>
       <c r="B49" s="25" t="s">
         <v>36</v>
       </c>
@@ -2228,18 +2233,18 @@
       <c r="D49" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="59"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="G49" s="60"/>
+      <c r="G49" s="73"/>
       <c r="H49" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
+      <c r="A50" s="67"/>
       <c r="B50" s="25" t="s">
         <v>37</v>
       </c>
@@ -2249,20 +2254,20 @@
       <c r="D50" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="59"/>
+      <c r="E50" s="61"/>
       <c r="F50" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="60" t="s">
+      <c r="G50" s="73" t="s">
         <v>71</v>
       </c>
       <c r="H50" s="52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="25" t="s">
         <v>38</v>
       </c>
@@ -2278,15 +2283,15 @@
       <c r="F51" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="60"/>
+      <c r="G51" s="73"/>
       <c r="H51" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="65" t="s">
-        <v>178</v>
+      <c r="A52" s="67" t="s">
+        <v>177</v>
       </c>
       <c r="B52" s="25" t="s">
         <v>32</v>
@@ -2297,22 +2302,22 @@
       <c r="D52" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="59" t="s">
+      <c r="E52" s="61" t="s">
         <v>71</v>
       </c>
       <c r="F52" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="60" t="s">
+      <c r="G52" s="73" t="s">
         <v>73</v>
       </c>
       <c r="H52" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="65"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="25" t="s">
         <v>33</v>
       </c>
@@ -2322,18 +2327,18 @@
       <c r="D53" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="59"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="60"/>
+      <c r="G53" s="73"/>
       <c r="H53" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
+      <c r="A54" s="67"/>
       <c r="B54" s="25" t="s">
         <v>34</v>
       </c>
@@ -2343,20 +2348,20 @@
       <c r="D54" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="59"/>
+      <c r="E54" s="61"/>
       <c r="F54" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="60" t="s">
+      <c r="G54" s="73" t="s">
         <v>74</v>
       </c>
       <c r="H54" s="52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="25" t="s">
         <v>35</v>
       </c>
@@ -2366,20 +2371,20 @@
       <c r="D55" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="59" t="s">
+      <c r="E55" s="61" t="s">
         <v>72</v>
       </c>
       <c r="F55" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="G55" s="60"/>
+      <c r="G55" s="73"/>
       <c r="H55" s="52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
+      <c r="A56" s="67"/>
       <c r="B56" s="25" t="s">
         <v>36</v>
       </c>
@@ -2389,18 +2394,18 @@
       <c r="D56" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="59"/>
+      <c r="E56" s="61"/>
       <c r="F56" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G56" s="60"/>
+      <c r="G56" s="73"/>
       <c r="H56" s="52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
+      <c r="A57" s="67"/>
       <c r="B57" s="25" t="s">
         <v>37</v>
       </c>
@@ -2410,20 +2415,20 @@
       <c r="D57" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="59"/>
+      <c r="E57" s="61"/>
       <c r="F57" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="G57" s="60" t="s">
+      <c r="G57" s="73" t="s">
         <v>71</v>
       </c>
       <c r="H57" s="52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="25" t="s">
         <v>38</v>
       </c>
@@ -2439,9 +2444,9 @@
       <c r="F58" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="60"/>
+      <c r="G58" s="73"/>
       <c r="H58" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I58" s="12"/>
     </row>
@@ -2458,7 +2463,7 @@
     </row>
     <row r="60" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
@@ -2470,48 +2475,48 @@
       <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="B61" s="56" t="s">
+      <c r="A61" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="56" t="s">
+      <c r="C61" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56" t="s">
-        <v>172</v>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60" t="s">
+        <v>171</v>
       </c>
       <c r="H61" s="12"/>
     </row>
     <row r="62" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="56"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
+      <c r="A62" s="60"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
       <c r="H62" s="12"/>
     </row>
     <row r="63" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="56"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
+      <c r="A63" s="60"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
       <c r="H63" s="12"/>
     </row>
     <row r="64" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
-        <v>188</v>
+      <c r="A64" s="69" t="s">
+        <v>187</v>
       </c>
       <c r="B64" s="51" t="s">
         <v>26</v>
@@ -2519,117 +2524,117 @@
       <c r="C64" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="61" t="s">
         <v>69</v>
       </c>
       <c r="E64" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F64" s="59" t="s">
+      <c r="F64" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G64" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H64" s="12"/>
     </row>
     <row r="65" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="51" t="s">
         <v>27</v>
       </c>
       <c r="C65" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="66"/>
+      <c r="D65" s="70"/>
       <c r="E65" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="66"/>
+      <c r="F65" s="70"/>
       <c r="G65" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H65" s="12"/>
     </row>
     <row r="66" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C66" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="66"/>
+      <c r="D66" s="70"/>
       <c r="E66" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="F66" s="66"/>
+      <c r="F66" s="70"/>
       <c r="G66" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H66" s="12"/>
     </row>
     <row r="67" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="51" t="s">
         <v>29</v>
       </c>
       <c r="C67" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="61" t="s">
         <v>70</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F67" s="59" t="s">
+      <c r="F67" s="61" t="s">
         <v>68</v>
       </c>
       <c r="G67" s="55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="57"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="51" t="s">
         <v>30</v>
       </c>
       <c r="C68" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="66"/>
+      <c r="D68" s="70"/>
       <c r="E68" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="66"/>
+      <c r="F68" s="70"/>
       <c r="G68" s="55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
+      <c r="A69" s="69"/>
       <c r="B69" s="51" t="s">
         <v>31</v>
       </c>
       <c r="C69" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="66"/>
+      <c r="D69" s="70"/>
       <c r="E69" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F69" s="66"/>
+      <c r="F69" s="70"/>
       <c r="G69" s="55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="57" t="s">
-        <v>189</v>
+      <c r="A70" s="69" t="s">
+        <v>188</v>
       </c>
       <c r="B70" s="51" t="s">
         <v>26</v>
@@ -2637,99 +2642,99 @@
       <c r="C70" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="59" t="s">
+      <c r="D70" s="61" t="s">
         <v>69</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="F70" s="59" t="s">
+      <c r="F70" s="61" t="s">
         <v>67</v>
       </c>
       <c r="G70" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
+      <c r="A71" s="69"/>
       <c r="B71" s="51" t="s">
         <v>27</v>
       </c>
       <c r="C71" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="D71" s="66"/>
+      <c r="D71" s="70"/>
       <c r="E71" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F71" s="66"/>
+      <c r="F71" s="70"/>
       <c r="G71" s="55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H71" s="12"/>
     </row>
     <row r="72" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="57"/>
+      <c r="A72" s="69"/>
       <c r="B72" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="D72" s="66"/>
+      <c r="D72" s="70"/>
       <c r="E72" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="66"/>
+      <c r="F72" s="70"/>
       <c r="G72" s="55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H72" s="12"/>
     </row>
     <row r="73" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="57"/>
+      <c r="A73" s="69"/>
       <c r="B73" s="51" t="s">
         <v>29</v>
       </c>
       <c r="C73" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="59" t="s">
+      <c r="D73" s="61" t="s">
         <v>70</v>
       </c>
       <c r="E73" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="F73" s="59" t="s">
+      <c r="F73" s="61" t="s">
         <v>68</v>
       </c>
       <c r="G73" s="55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H73" s="12"/>
     </row>
     <row r="74" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
+      <c r="A74" s="69"/>
       <c r="B74" s="51" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="59"/>
+      <c r="D74" s="61"/>
       <c r="E74" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="F74" s="59"/>
+      <c r="F74" s="61"/>
       <c r="G74" s="55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H74" s="12"/>
     </row>
     <row r="75" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="65" t="s">
-        <v>177</v>
+      <c r="A75" s="67" t="s">
+        <v>176</v>
       </c>
       <c r="B75" s="52" t="s">
         <v>32</v>
@@ -2737,122 +2742,122 @@
       <c r="C75" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="D75" s="59" t="s">
+      <c r="D75" s="61" t="s">
         <v>71</v>
       </c>
       <c r="E75" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="F75" s="60" t="s">
+      <c r="F75" s="73" t="s">
         <v>73</v>
       </c>
       <c r="G75" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
+      <c r="A76" s="67"/>
       <c r="B76" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C76" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="D76" s="59"/>
+      <c r="D76" s="61"/>
       <c r="E76" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="F76" s="60"/>
+      <c r="F76" s="73"/>
       <c r="G76" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="65"/>
+      <c r="A77" s="67"/>
       <c r="B77" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C77" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="D77" s="59"/>
+      <c r="D77" s="61"/>
       <c r="E77" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="60"/>
+      <c r="F77" s="73"/>
       <c r="G77" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
     <row r="78" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="65"/>
+      <c r="A78" s="67"/>
       <c r="B78" s="52" t="s">
         <v>35</v>
       </c>
       <c r="C78" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="D78" s="59" t="s">
+      <c r="D78" s="61" t="s">
         <v>72</v>
       </c>
       <c r="E78" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="60" t="s">
+      <c r="F78" s="73" t="s">
         <v>74</v>
       </c>
       <c r="G78" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
+      <c r="A79" s="67"/>
       <c r="B79" s="52" t="s">
         <v>36</v>
       </c>
       <c r="C79" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="D79" s="59"/>
+      <c r="D79" s="61"/>
       <c r="E79" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="F79" s="60"/>
+      <c r="F79" s="73"/>
       <c r="G79" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" s="30" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="65"/>
+      <c r="A80" s="67"/>
       <c r="B80" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C80" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="D80" s="59"/>
+      <c r="D80" s="61"/>
       <c r="E80" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="F80" s="60"/>
+      <c r="F80" s="73"/>
       <c r="G80" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
     </row>
     <row r="81" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="65"/>
+      <c r="A81" s="67"/>
       <c r="B81" s="52" t="s">
         <v>38</v>
       </c>
@@ -2869,14 +2874,14 @@
         <v>71</v>
       </c>
       <c r="G81" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="65" t="s">
-        <v>178</v>
+      <c r="A82" s="67" t="s">
+        <v>177</v>
       </c>
       <c r="B82" s="52" t="s">
         <v>32</v>
@@ -2884,122 +2889,122 @@
       <c r="C82" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D82" s="59" t="s">
+      <c r="D82" s="61" t="s">
         <v>71</v>
       </c>
       <c r="E82" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="F82" s="60" t="s">
+      <c r="F82" s="73" t="s">
         <v>73</v>
       </c>
       <c r="G82" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="65"/>
+      <c r="A83" s="67"/>
       <c r="B83" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C83" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D83" s="59"/>
+      <c r="D83" s="61"/>
       <c r="E83" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="F83" s="60"/>
+      <c r="F83" s="73"/>
       <c r="G83" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="65"/>
+      <c r="A84" s="67"/>
       <c r="B84" s="52" t="s">
         <v>34</v>
       </c>
       <c r="C84" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D84" s="59"/>
+      <c r="D84" s="61"/>
       <c r="E84" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F84" s="60"/>
+      <c r="F84" s="73"/>
       <c r="G84" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="65"/>
+      <c r="A85" s="67"/>
       <c r="B85" s="52" t="s">
         <v>35</v>
       </c>
       <c r="C85" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D85" s="59" t="s">
+      <c r="D85" s="61" t="s">
         <v>72</v>
       </c>
       <c r="E85" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="60" t="s">
+      <c r="F85" s="73" t="s">
         <v>74</v>
       </c>
       <c r="G85" s="52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="65"/>
+      <c r="A86" s="67"/>
       <c r="B86" s="52" t="s">
         <v>36</v>
       </c>
       <c r="C86" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D86" s="59"/>
+      <c r="D86" s="61"/>
       <c r="E86" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F86" s="60"/>
+      <c r="F86" s="73"/>
       <c r="G86" s="52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
     <row r="87" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="65"/>
+      <c r="A87" s="67"/>
       <c r="B87" s="52" t="s">
         <v>37</v>
       </c>
       <c r="C87" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D87" s="59"/>
+      <c r="D87" s="61"/>
       <c r="E87" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F87" s="60"/>
+      <c r="F87" s="73"/>
       <c r="G87" s="52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
     <row r="88" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="65"/>
+      <c r="A88" s="67"/>
       <c r="B88" s="52" t="s">
         <v>38</v>
       </c>
@@ -3016,7 +3021,7 @@
         <v>71</v>
       </c>
       <c r="G88" s="52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
@@ -3033,12 +3038,12 @@
       <c r="I89" s="12"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="63" t="s">
+      <c r="A90" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="71"/>
+      <c r="C90" s="56" t="s">
         <v>207</v>
-      </c>
-      <c r="B90" s="63"/>
-      <c r="C90" s="74" t="s">
-        <v>208</v>
       </c>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
@@ -3046,18 +3051,18 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="B91" s="63"/>
-      <c r="C91" s="75"/>
+      <c r="A91" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="B91" s="71"/>
+      <c r="C91" s="57"/>
       <c r="D91" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="61" t="s">
+      <c r="E91" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="F91" s="62"/>
+      <c r="F91" s="59"/>
       <c r="G91" s="12" t="s">
         <v>7</v>
       </c>
@@ -3065,41 +3070,64 @@
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="63" t="s">
+      <c r="A92" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="63"/>
-      <c r="C92" s="64" t="s">
+      <c r="B92" s="71"/>
+      <c r="C92" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="D92" s="64"/>
+      <c r="D92" s="72"/>
       <c r="I92" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="D30:E32"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="D42:E44"/>
+    <mergeCell ref="C61:D63"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F70:F72"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
@@ -3116,58 +3144,35 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="D30:E32"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="A64:A69"/>
     <mergeCell ref="E61:F63"/>
     <mergeCell ref="D64:D66"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="A70:A74"/>
     <mergeCell ref="D70:D72"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F70:F72"/>
-    <mergeCell ref="C61:D63"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="D42:E44"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.60416666666666663" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Shablon/34420A.xlsx
+++ b/Shablon/34420A.xlsx
@@ -732,7 +732,7 @@
     <numFmt numFmtId="168" formatCode="0.00000"/>
     <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,20 +740,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -770,13 +756,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -841,17 +820,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial Cyr"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -966,212 +942,197 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1481,1653 +1442,1622 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" style="6" customWidth="1"/>
-    <col min="4" max="8" width="10.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="3" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="1"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="3"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="3"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="3"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="str">
+      <c r="A7" s="52" t="str">
         <f>"Протокол поверки № 10/"&amp;C92&amp;"/"&amp;D10</f>
         <v>Протокол поверки № 10/_date/_numb</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="4"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="39" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="42"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="43" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="42"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="42"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
+      <c r="A13" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="43" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="42"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="45" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="42"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="39" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="42"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
+      <c r="A16" s="20"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65" t="s">
+      <c r="E18" s="49"/>
+      <c r="F18" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="11"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="64" t="s">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65" t="s">
+      <c r="E19" s="59"/>
+      <c r="F19" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="9"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="64" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65" t="s">
+      <c r="E20" s="59"/>
+      <c r="F20" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="9"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="64" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65" t="s">
+      <c r="E21" s="59"/>
+      <c r="F21" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="9"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="65" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="9"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="65" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60" t="s">
+      <c r="E30" s="42"/>
+      <c r="F30" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60" t="s">
+      <c r="G30" s="42"/>
+      <c r="H30" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53" t="s">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="69" t="s">
+      <c r="B33" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="74" t="s">
+      <c r="G33" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="55" t="s">
+      <c r="H33" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="48" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="35" t="s">
+      <c r="D34" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="35" t="s">
+      <c r="F34" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="74"/>
-      <c r="H34" s="55" t="s">
+      <c r="G34" s="44"/>
+      <c r="H34" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="52" t="s">
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="48" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="35" t="s">
+      <c r="E35" s="45"/>
+      <c r="F35" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="G35" s="74"/>
-      <c r="H35" s="55" t="s">
+      <c r="G35" s="44"/>
+      <c r="H35" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="48" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="35" t="s">
+      <c r="E36" s="45"/>
+      <c r="F36" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="G36" s="55" t="s">
+      <c r="G36" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="55" t="s">
+      <c r="H36" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="52" t="s">
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="35" t="s">
+      <c r="F37" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="G37" s="74" t="s">
+      <c r="G37" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="55" t="s">
+      <c r="H37" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="48" t="s">
+      <c r="B38" s="43"/>
+      <c r="C38" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="G38" s="74"/>
-      <c r="H38" s="55" t="s">
+      <c r="G38" s="44"/>
+      <c r="H38" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52" t="s">
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="48" t="s">
+      <c r="B39" s="43"/>
+      <c r="C39" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="35" t="s">
+      <c r="E39" s="45"/>
+      <c r="F39" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="74"/>
-      <c r="H39" s="55" t="s">
+      <c r="G39" s="44"/>
+      <c r="H39" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="60" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="60" t="s">
+      <c r="D42" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60" t="s">
+      <c r="E42" s="42"/>
+      <c r="F42" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60" t="s">
+      <c r="G42" s="42"/>
+      <c r="H42" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="67" t="s">
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D45" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="61" t="s">
+      <c r="E45" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="G45" s="73" t="s">
+      <c r="G45" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="H45" s="52" t="s">
+      <c r="H45" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="67"/>
-      <c r="B46" s="25" t="s">
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="48"/>
+      <c r="B46" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="61"/>
-      <c r="F46" s="36" t="s">
+      <c r="E46" s="45"/>
+      <c r="F46" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="73"/>
-      <c r="H46" s="52" t="s">
+      <c r="G46" s="46"/>
+      <c r="H46" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="67"/>
-      <c r="B47" s="25" t="s">
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="48"/>
+      <c r="B47" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="16" t="s">
+      <c r="C47" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D47" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="61"/>
-      <c r="F47" s="36" t="s">
+      <c r="E47" s="45"/>
+      <c r="F47" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="G47" s="73" t="s">
+      <c r="G47" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="H47" s="52" t="s">
+      <c r="H47" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="67"/>
-      <c r="B48" s="25" t="s">
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="48"/>
+      <c r="B48" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="61" t="s">
+      <c r="E48" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F48" s="36" t="s">
+      <c r="F48" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G48" s="73"/>
-      <c r="H48" s="52" t="s">
+      <c r="G48" s="46"/>
+      <c r="H48" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="67"/>
-      <c r="B49" s="25" t="s">
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="48"/>
+      <c r="B49" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="D49" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="36" t="s">
+      <c r="E49" s="45"/>
+      <c r="F49" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="G49" s="73"/>
-      <c r="H49" s="52" t="s">
+      <c r="G49" s="46"/>
+      <c r="H49" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="67"/>
-      <c r="B50" s="25" t="s">
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="48"/>
+      <c r="B50" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="61"/>
-      <c r="F50" s="36" t="s">
+      <c r="E50" s="45"/>
+      <c r="F50" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="73" t="s">
+      <c r="G50" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="H50" s="52" t="s">
+      <c r="H50" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="I50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="67"/>
-      <c r="B51" s="25" t="s">
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="48"/>
+      <c r="B51" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="D51" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="37" t="s">
+      <c r="E51" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="G51" s="73"/>
-      <c r="H51" s="52" t="s">
+      <c r="G51" s="46"/>
+      <c r="H51" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="I51" s="12"/>
-    </row>
-    <row r="52" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="67" t="s">
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="61" t="s">
+      <c r="E52" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="G52" s="73" t="s">
+      <c r="G52" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="H52" s="52" t="s">
+      <c r="H52" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="I52" s="12"/>
-    </row>
-    <row r="53" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67"/>
-      <c r="B53" s="25" t="s">
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="48"/>
+      <c r="B53" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="61"/>
-      <c r="F53" s="36" t="s">
+      <c r="E53" s="45"/>
+      <c r="F53" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="73"/>
-      <c r="H53" s="52" t="s">
+      <c r="G53" s="46"/>
+      <c r="H53" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="I53" s="12"/>
-    </row>
-    <row r="54" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="67"/>
-      <c r="B54" s="25" t="s">
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="48"/>
+      <c r="B54" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="34" t="s">
+      <c r="D54" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="61"/>
-      <c r="F54" s="36" t="s">
+      <c r="E54" s="45"/>
+      <c r="F54" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="G54" s="73" t="s">
+      <c r="G54" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="52" t="s">
+      <c r="H54" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="I54" s="12"/>
-    </row>
-    <row r="55" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="67"/>
-      <c r="B55" s="25" t="s">
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="48"/>
+      <c r="B55" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="32" t="s">
+      <c r="C55" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="34" t="s">
+      <c r="D55" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="61" t="s">
+      <c r="E55" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="G55" s="73"/>
-      <c r="H55" s="52" t="s">
+      <c r="G55" s="46"/>
+      <c r="H55" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="I55" s="12"/>
-    </row>
-    <row r="56" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="67"/>
-      <c r="B56" s="25" t="s">
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="48"/>
+      <c r="B56" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="34" t="s">
+      <c r="D56" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="E56" s="61"/>
-      <c r="F56" s="36" t="s">
+      <c r="E56" s="45"/>
+      <c r="F56" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="G56" s="73"/>
-      <c r="H56" s="52" t="s">
+      <c r="G56" s="46"/>
+      <c r="H56" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="I56" s="12"/>
-    </row>
-    <row r="57" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="67"/>
-      <c r="B57" s="25" t="s">
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="48"/>
+      <c r="B57" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E57" s="61"/>
-      <c r="F57" s="36" t="s">
+      <c r="E57" s="45"/>
+      <c r="F57" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="G57" s="73" t="s">
+      <c r="G57" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="H57" s="52" t="s">
+      <c r="H57" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="I57" s="12"/>
-    </row>
-    <row r="58" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="67"/>
-      <c r="B58" s="25" t="s">
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="48"/>
+      <c r="B58" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="33" t="s">
+      <c r="C58" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="34" t="s">
+      <c r="D58" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="G58" s="73"/>
-      <c r="H58" s="52" t="s">
+      <c r="G58" s="46"/>
+      <c r="H58" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="I58" s="12"/>
-    </row>
-    <row r="59" spans="1:9" s="30" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A59" s="29"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-    </row>
-    <row r="60" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-    </row>
-    <row r="61" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="60" t="s">
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="1:9" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60" t="s">
+      <c r="D61" s="42"/>
+      <c r="E61" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60" t="s">
+      <c r="F61" s="42"/>
+      <c r="G61" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="H61" s="12"/>
-    </row>
-    <row r="62" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="60"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="12"/>
-    </row>
-    <row r="63" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="60"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="12"/>
-    </row>
-    <row r="64" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="69" t="s">
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C64" s="50" t="s">
+      <c r="C64" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D64" s="61" t="s">
+      <c r="D64" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="F64" s="61" t="s">
+      <c r="F64" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G64" s="55" t="s">
+      <c r="G64" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="H64" s="12"/>
-    </row>
-    <row r="65" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="69"/>
-      <c r="B65" s="51" t="s">
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="43"/>
+      <c r="B65" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="50" t="s">
+      <c r="C65" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="70"/>
-      <c r="E65" s="34" t="s">
+      <c r="D65" s="66"/>
+      <c r="E65" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="70"/>
-      <c r="G65" s="55" t="s">
+      <c r="F65" s="66"/>
+      <c r="G65" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="H65" s="12"/>
-    </row>
-    <row r="66" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="69"/>
-      <c r="B66" s="51" t="s">
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="43"/>
+      <c r="B66" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="50" t="s">
+      <c r="C66" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="D66" s="70"/>
-      <c r="E66" s="34" t="s">
+      <c r="D66" s="66"/>
+      <c r="E66" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="F66" s="70"/>
-      <c r="G66" s="55" t="s">
+      <c r="F66" s="66"/>
+      <c r="G66" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="H66" s="12"/>
-    </row>
-    <row r="67" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="69"/>
-      <c r="B67" s="51" t="s">
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="43"/>
+      <c r="B67" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="50" t="s">
+      <c r="C67" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D67" s="61" t="s">
+      <c r="D67" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="F67" s="61" t="s">
+      <c r="F67" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G67" s="55" t="s">
+      <c r="G67" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="H67" s="12"/>
-    </row>
-    <row r="68" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="69"/>
-      <c r="B68" s="51" t="s">
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="43"/>
+      <c r="B68" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="70"/>
-      <c r="E68" s="34" t="s">
+      <c r="D68" s="66"/>
+      <c r="E68" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="70"/>
-      <c r="G68" s="55" t="s">
+      <c r="F68" s="66"/>
+      <c r="G68" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="H68" s="12"/>
-    </row>
-    <row r="69" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="69"/>
-      <c r="B69" s="51" t="s">
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="43"/>
+      <c r="B69" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="50" t="s">
+      <c r="C69" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="D69" s="70"/>
-      <c r="E69" s="34" t="s">
+      <c r="D69" s="66"/>
+      <c r="E69" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="F69" s="70"/>
-      <c r="G69" s="55" t="s">
+      <c r="F69" s="66"/>
+      <c r="G69" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="H69" s="12"/>
-    </row>
-    <row r="70" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="69" t="s">
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C70" s="50" t="s">
+      <c r="C70" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="61" t="s">
+      <c r="D70" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E70" s="34" t="s">
+      <c r="E70" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="F70" s="61" t="s">
+      <c r="F70" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G70" s="55" t="s">
+      <c r="G70" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="H70" s="12"/>
-    </row>
-    <row r="71" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="69"/>
-      <c r="B71" s="51" t="s">
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="43"/>
+      <c r="B71" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="50" t="s">
+      <c r="C71" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="D71" s="70"/>
-      <c r="E71" s="34" t="s">
+      <c r="D71" s="66"/>
+      <c r="E71" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="F71" s="70"/>
-      <c r="G71" s="55" t="s">
+      <c r="F71" s="66"/>
+      <c r="G71" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="H71" s="12"/>
-    </row>
-    <row r="72" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="69"/>
-      <c r="B72" s="51" t="s">
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="43"/>
+      <c r="B72" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C72" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="D72" s="70"/>
-      <c r="E72" s="34" t="s">
+      <c r="D72" s="66"/>
+      <c r="E72" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="F72" s="70"/>
-      <c r="G72" s="55" t="s">
+      <c r="F72" s="66"/>
+      <c r="G72" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="H72" s="12"/>
-    </row>
-    <row r="73" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="69"/>
-      <c r="B73" s="51" t="s">
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="43"/>
+      <c r="B73" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="50" t="s">
+      <c r="C73" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="61" t="s">
+      <c r="D73" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="E73" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="F73" s="61" t="s">
+      <c r="F73" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="G73" s="55" t="s">
+      <c r="G73" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="H73" s="12"/>
-    </row>
-    <row r="74" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="69"/>
-      <c r="B74" s="51" t="s">
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="43"/>
+      <c r="B74" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D74" s="61"/>
-      <c r="E74" s="34" t="s">
+      <c r="D74" s="45"/>
+      <c r="E74" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="F74" s="61"/>
-      <c r="G74" s="55" t="s">
+      <c r="F74" s="45"/>
+      <c r="G74" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="H74" s="12"/>
-    </row>
-    <row r="75" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="67" t="s">
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:9" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="50" t="s">
+      <c r="C75" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="D75" s="61" t="s">
+      <c r="D75" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E75" s="34" t="s">
+      <c r="E75" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="F75" s="73" t="s">
+      <c r="F75" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G75" s="52" t="s">
+      <c r="G75" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-    </row>
-    <row r="76" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="67"/>
-      <c r="B76" s="52" t="s">
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="48"/>
+      <c r="B76" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="50" t="s">
+      <c r="C76" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="D76" s="61"/>
-      <c r="E76" s="34" t="s">
+      <c r="D76" s="45"/>
+      <c r="E76" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="F76" s="73"/>
-      <c r="G76" s="52" t="s">
+      <c r="F76" s="46"/>
+      <c r="G76" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-    </row>
-    <row r="77" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="67"/>
-      <c r="B77" s="52" t="s">
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="48"/>
+      <c r="B77" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="34" t="s">
+      <c r="D77" s="45"/>
+      <c r="E77" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="73"/>
-      <c r="G77" s="52" t="s">
+      <c r="F77" s="46"/>
+      <c r="G77" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-    </row>
-    <row r="78" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="67"/>
-      <c r="B78" s="52" t="s">
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="48"/>
+      <c r="B78" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D78" s="61" t="s">
+      <c r="D78" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E78" s="34" t="s">
+      <c r="E78" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="F78" s="73" t="s">
+      <c r="F78" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="G78" s="52" t="s">
+      <c r="G78" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-    </row>
-    <row r="79" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="67"/>
-      <c r="B79" s="52" t="s">
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="48"/>
+      <c r="B79" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="50" t="s">
+      <c r="C79" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="34" t="s">
+      <c r="D79" s="45"/>
+      <c r="E79" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="F79" s="73"/>
-      <c r="G79" s="52" t="s">
+      <c r="F79" s="46"/>
+      <c r="G79" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-    </row>
-    <row r="80" spans="1:9" s="30" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="67"/>
-      <c r="B80" s="52" t="s">
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="1:9" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="48"/>
+      <c r="B80" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="50" t="s">
+      <c r="C80" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="D80" s="61"/>
-      <c r="E80" s="34" t="s">
+      <c r="D80" s="45"/>
+      <c r="E80" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="F80" s="73"/>
-      <c r="G80" s="52" t="s">
+      <c r="F80" s="46"/>
+      <c r="G80" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-    </row>
-    <row r="81" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="67"/>
-      <c r="B81" s="52" t="s">
+    </row>
+    <row r="81" spans="1:9" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="48"/>
+      <c r="B81" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C81" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E81" s="34" t="s">
+      <c r="E81" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="F81" s="52" t="s">
+      <c r="F81" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G81" s="52" t="s">
+      <c r="G81" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-    </row>
-    <row r="82" spans="1:9" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="67" t="s">
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+    </row>
+    <row r="82" spans="1:9" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="50" t="s">
+      <c r="C82" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="D82" s="61" t="s">
+      <c r="D82" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E82" s="34" t="s">
+      <c r="E82" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="F82" s="73" t="s">
+      <c r="F82" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G82" s="52" t="s">
+      <c r="G82" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-    </row>
-    <row r="83" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="67"/>
-      <c r="B83" s="52" t="s">
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="48"/>
+      <c r="B83" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="50" t="s">
+      <c r="C83" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="34" t="s">
+      <c r="D83" s="45"/>
+      <c r="E83" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="F83" s="73"/>
-      <c r="G83" s="52" t="s">
+      <c r="F83" s="46"/>
+      <c r="G83" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-    </row>
-    <row r="84" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="67"/>
-      <c r="B84" s="52" t="s">
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="48"/>
+      <c r="B84" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C84" s="50" t="s">
+      <c r="C84" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="D84" s="61"/>
-      <c r="E84" s="34" t="s">
+      <c r="D84" s="45"/>
+      <c r="E84" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="F84" s="73"/>
-      <c r="G84" s="52" t="s">
+      <c r="F84" s="46"/>
+      <c r="G84" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-    </row>
-    <row r="85" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="67"/>
-      <c r="B85" s="52" t="s">
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="48"/>
+      <c r="B85" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C85" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="D85" s="61" t="s">
+      <c r="D85" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E85" s="34" t="s">
+      <c r="E85" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="F85" s="73" t="s">
+      <c r="F85" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="G85" s="52" t="s">
+      <c r="G85" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-    </row>
-    <row r="86" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="67"/>
-      <c r="B86" s="52" t="s">
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="48"/>
+      <c r="B86" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="50" t="s">
+      <c r="C86" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="D86" s="61"/>
-      <c r="E86" s="34" t="s">
+      <c r="D86" s="45"/>
+      <c r="E86" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="F86" s="73"/>
-      <c r="G86" s="52" t="s">
+      <c r="F86" s="46"/>
+      <c r="G86" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-    </row>
-    <row r="87" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="67"/>
-      <c r="B87" s="52" t="s">
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="48"/>
+      <c r="B87" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="D87" s="61"/>
-      <c r="E87" s="34" t="s">
+      <c r="D87" s="45"/>
+      <c r="E87" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="F87" s="73"/>
-      <c r="G87" s="52" t="s">
+      <c r="F87" s="46"/>
+      <c r="G87" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-    </row>
-    <row r="88" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="67"/>
-      <c r="B88" s="52" t="s">
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="48"/>
+      <c r="B88" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E88" s="34" t="s">
+      <c r="E88" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="F88" s="52" t="s">
+      <c r="F88" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="G88" s="52" t="s">
+      <c r="G88" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-    </row>
-    <row r="89" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" spans="1:9" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="71" t="s">
+      <c r="A90" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="B90" s="71"/>
-      <c r="C90" s="56" t="s">
+      <c r="B90" s="47"/>
+      <c r="C90" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="15"/>
-      <c r="I90" s="2"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="11"/>
+      <c r="I90" s="55"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="71" t="s">
+      <c r="A91" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="B91" s="71"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="22" t="s">
+      <c r="B91" s="47"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="58" t="s">
+      <c r="E91" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="F91" s="59"/>
-      <c r="G91" s="12" t="s">
+      <c r="F91" s="53"/>
+      <c r="G91" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H91" s="23"/>
-      <c r="I91" s="2"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="55"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="71" t="s">
+      <c r="A92" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="71"/>
-      <c r="C92" s="72" t="s">
+      <c r="B92" s="47"/>
+      <c r="C92" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D92" s="72"/>
-      <c r="I92" s="2"/>
+      <c r="D92" s="68"/>
+      <c r="I92" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="F30:G32"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="F82:F84"/>
-    <mergeCell ref="F85:F87"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="D42:E44"/>
-    <mergeCell ref="C61:D63"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="D85:D87"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="D30:E32"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A64:A69"/>
+    <mergeCell ref="E61:F63"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A1:H1"/>
@@ -3144,35 +3074,52 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="D30:E32"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A64:A69"/>
-    <mergeCell ref="E61:F63"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="C61:D63"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="D85:D87"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="D42:E44"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="F82:F84"/>
+    <mergeCell ref="F85:F87"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="F70:F72"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="F30:G32"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.60416666666666663" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
